--- a/Diagramas/Diagrama de Gantt.xlsx
+++ b/Diagramas/Diagrama de Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ximee\Documents\Doc Taller de Intecracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo-TallerdeIntegracion\Proyecto-Taller-de-Integracion\Diagramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F121BB79-0516-4FCE-A27B-53B6840C5B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49896C8-200D-4AC6-8D4D-3A78C119A992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="12456" xr2:uid="{3ACF070A-FE48-456C-9F9D-D435C9EBE8E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3ACF070A-FE48-456C-9F9D-D435C9EBE8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>8/9/2025-14/9/2025</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>DISEÑO DEL SISTEMA</t>
+  </si>
+  <si>
+    <t>DESARROLLO</t>
+  </si>
+  <si>
+    <t>20/10/20250-26/10/2025</t>
+  </si>
+  <si>
+    <t>27/10/2025-2/11/2025</t>
+  </si>
+  <si>
+    <t>SEMANA 11</t>
+  </si>
+  <si>
+    <t>3/11/2025-9/11/2025</t>
   </si>
 </sst>
 </file>
@@ -132,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +190,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -256,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -280,6 +301,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275020B9-0D76-4295-B699-FB800BDF968D}">
-  <dimension ref="B3:L20"/>
+  <dimension ref="B3:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,7 +666,7 @@
     <col min="3" max="11" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -674,8 +698,11 @@
       <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>3</v>
@@ -701,10 +728,17 @@
       <c r="J4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -718,8 +752,9 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="2:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -733,8 +768,9 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="2:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -748,8 +784,9 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
@@ -763,12 +800,29 @@
       <c r="J8" s="12"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
     </row>
